--- a/Examples/Output/MailSystemSummary.xlsx
+++ b/Examples/Output/MailSystemSummary.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="MX Records" sheetId="37" r:id="rId38"/>
-    <sheet name="DMARC Records" sheetId="38" r:id="rId39"/>
-    <sheet name="SPF Records" sheetId="39" r:id="rId40"/>
-    <sheet name="DKIM Records" sheetId="40" r:id="rId41"/>
+    <sheet name="MX Records" sheetId="41" r:id="rId42"/>
+    <sheet name="DMARC Records" sheetId="42" r:id="rId43"/>
+    <sheet name="SPF Records" sheetId="43" r:id="rId44"/>
+    <sheet name="DKIM Records" sheetId="44" r:id="rId45"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MX Records'!$A$1:$F$6</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -47,13 +47,13 @@
     <t>10</t>
   </si>
   <si>
-    <t>59</t>
+    <t>54</t>
   </si>
   <si>
     <t>evotec-pl.mail.protection.outlook.com</t>
   </si>
   <si>
-    <t>104.47.8.36; 104.47.9.36</t>
+    <t>104.47.10.36; 104.47.8.36</t>
   </si>
   <si>
     <t>evotec.xyz</t>
@@ -62,46 +62,43 @@
     <t>0</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>evotec-xyz.mail.protection.outlook.com</t>
   </si>
   <si>
     <t>google.com</t>
   </si>
   <si>
-    <t>10; 50; 40; 20; 30</t>
-  </si>
-  <si>
-    <t>16; 16; 16; 16; 16</t>
-  </si>
-  <si>
-    <t>aspmx.l.google.com; alt4.aspmx.l.google.com; alt3.aspmx.l.google.com; alt1.aspmx.l.google.com; alt2.aspmx.l.google.com</t>
-  </si>
-  <si>
-    <t>108.177.97.27; 173.194.70.27; 173.194.73.26; 209.85.234.27; 2404:6800:4008:c00::1a; 2607:f8b0:4001:c17::1a; 2607:f8b0:4003:c0f::1a; 2607:f8b0:400e:c04::1a; 2a00:1450:4010:c0b::1a; 74.125.28.27</t>
+    <t>40; 20; 30; 10; 50</t>
+  </si>
+  <si>
+    <t>247; 247; 247; 247; 247</t>
+  </si>
+  <si>
+    <t>alt3.aspmx.l.google.com; alt1.aspmx.l.google.com; alt2.aspmx.l.google.com; aspmx.l.google.com; alt4.aspmx.l.google.com</t>
+  </si>
+  <si>
+    <t>108.177.97.27; 173.194.220.26; 173.194.70.26; 209.85.234.27; 2404:6800:4008:c00::1a; 2607:f8b0:4001:c17::1b; 2607:f8b0:4003:c0f::1a; 2607:f8b0:400e:c04::1b; 2a00:1450:4010:c05::1a; 74.125.28.27</t>
   </si>
   <si>
     <t>gmail.com</t>
   </si>
   <si>
-    <t>20; 10; 5; 40; 30</t>
-  </si>
-  <si>
-    <t>2970; 2970; 2970; 2970; 2970</t>
-  </si>
-  <si>
-    <t>alt2.gmail-smtp-in.l.google.com; alt1.gmail-smtp-in.l.google.com; gmail-smtp-in.l.google.com; alt4.gmail-smtp-in.l.google.com; alt3.gmail-smtp-in.l.google.com</t>
-  </si>
-  <si>
-    <t>108.177.14.27; 108.177.97.26; 173.194.70.27; 209.85.234.27; 2404:6800:4008:c00::1b; 2607:f8b0:4001:c17::1b; 2607:f8b0:4003:c0f::1b; 2607:f8b0:400e:c04::1b; 2a00:1450:4010:c05::1b; 74.125.28.26</t>
+    <t>10; 5; 40; 30; 20</t>
+  </si>
+  <si>
+    <t>2031; 2031; 2031; 2031; 2031</t>
+  </si>
+  <si>
+    <t>alt1.gmail-smtp-in.l.google.com; gmail-smtp-in.l.google.com; alt4.gmail-smtp-in.l.google.com; alt3.gmail-smtp-in.l.google.com; alt2.gmail-smtp-in.l.google.com</t>
+  </si>
+  <si>
+    <t>108.177.14.26; 108.177.97.26; 173.194.70.27; 209.85.234.26; 2404:6800:4008:c00::1a; 2607:f8b0:4001:c17::1a; 2607:f8b0:4003:c0f::1b; 2607:f8b0:400e:c04::1a; 2a00:1450:4010:c05::1a; 74.125.28.27</t>
   </si>
   <si>
     <t>microsoft.com</t>
   </si>
   <si>
-    <t>3149</t>
+    <t>2210</t>
   </si>
   <si>
     <t>microsoft-com.mail.protection.outlook.com</t>
@@ -119,19 +116,19 @@
     <t/>
   </si>
   <si>
-    <t>168</t>
+    <t>300</t>
   </si>
   <si>
     <t>v=DMARC1; p=reject; rua=mailto:mailauth-reports@google.com</t>
   </si>
   <si>
-    <t>468</t>
+    <t>22</t>
   </si>
   <si>
     <t>v=DMARC1; p=none; sp=quarantine; rua=mailto:mailauth-reports@google.com</t>
   </si>
   <si>
-    <t>1837</t>
+    <t>898</t>
   </si>
   <si>
     <t>v=DMARC1; p=reject; pct=100; rua=mailto:d@rua.agari.com; ruf=mailto:d@ruf.agari.com; fo=1</t>
@@ -146,13 +143,10 @@
     <t>v=spf1 include:spf.protection.outlook.com -all</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>v=spf1 include:_spf.google.com ~all</t>
   </si>
   <si>
-    <t>13</t>
+    <t>260</t>
   </si>
   <si>
     <t>v=spf1 redirect=_spf.google.com</t>
@@ -229,7 +223,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -239,10 +233,10 @@
   <cols>
     <col min="1" max="1" width="14.1171236038208" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.6093101501465" customWidth="1"/>
-    <col min="4" max="4" width="27.5458793640137" customWidth="1"/>
-    <col min="5" max="5" width="140.837051391602" customWidth="1"/>
-    <col min="6" max="6" width="177.747177124023" customWidth="1"/>
+    <col min="3" max="3" width="16.609310150146484" customWidth="1"/>
+    <col min="4" max="4" width="27.545879364013672" customWidth="1"/>
+    <col min="5" max="5" width="140.83705139160156" customWidth="1"/>
+    <col min="6" max="6" width="178.54005432128906" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -296,10 +290,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>10</v>
@@ -307,47 +301,47 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0">
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
@@ -356,13 +350,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -371,7 +365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -382,7 +376,7 @@
     <col min="1" max="1" width="14.1171236038208" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="84.9418792724609" customWidth="1"/>
+    <col min="4" max="4" width="84.94187927246094" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -396,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -404,13 +398,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -418,55 +412,55 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="0">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="0">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="0">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -486,7 +480,7 @@
     <col min="1" max="1" width="14.1171236038208" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="171.578094482422" customWidth="1"/>
+    <col min="4" max="4" width="171.57809448242188" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -500,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -508,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -522,55 +516,55 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0">
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="0">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -589,8 +583,8 @@
   <cols>
     <col min="1" max="1" width="14.1171236038208" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.8009014129639" customWidth="1"/>
-    <col min="4" max="4" width="281.104400634766" customWidth="1"/>
+    <col min="3" max="3" width="22.800901412963867" customWidth="1"/>
+    <col min="4" max="4" width="281.1044006347656" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -601,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -615,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -629,52 +623,52 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Output/MailSystemSummary.xlsx
+++ b/Examples/Output/MailSystemSummary.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="MX Records" sheetId="41" r:id="rId42"/>
-    <sheet name="DMARC Records" sheetId="42" r:id="rId43"/>
-    <sheet name="SPF Records" sheetId="43" r:id="rId44"/>
-    <sheet name="DKIM Records" sheetId="44" r:id="rId45"/>
+    <sheet name="MX Records" sheetId="45" r:id="rId46"/>
+    <sheet name="DMARC Records" sheetId="46" r:id="rId47"/>
+    <sheet name="SPF Records" sheetId="47" r:id="rId48"/>
+    <sheet name="DKIM Records" sheetId="48" r:id="rId49"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MX Records'!$A$1:$F$6</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Preference</t>
   </si>
   <si>
-    <t>TTL</t>
+    <t>TimeToLive</t>
   </si>
   <si>
     <t>MX</t>
@@ -47,7 +47,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>54</t>
+    <t>60</t>
   </si>
   <si>
     <t>evotec-pl.mail.protection.outlook.com</t>
@@ -62,43 +62,49 @@
     <t>0</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>evotec-xyz.mail.protection.outlook.com</t>
   </si>
   <si>
+    <t>104.47.8.36; 104.47.9.36</t>
+  </si>
+  <si>
     <t>google.com</t>
   </si>
   <si>
-    <t>40; 20; 30; 10; 50</t>
-  </si>
-  <si>
-    <t>247; 247; 247; 247; 247</t>
-  </si>
-  <si>
-    <t>alt3.aspmx.l.google.com; alt1.aspmx.l.google.com; alt2.aspmx.l.google.com; aspmx.l.google.com; alt4.aspmx.l.google.com</t>
-  </si>
-  <si>
-    <t>108.177.97.27; 173.194.220.26; 173.194.70.26; 209.85.234.27; 2404:6800:4008:c00::1a; 2607:f8b0:4001:c17::1b; 2607:f8b0:4003:c0f::1a; 2607:f8b0:400e:c04::1b; 2a00:1450:4010:c05::1a; 74.125.28.27</t>
+    <t>20; 40; 30; 10; 50</t>
+  </si>
+  <si>
+    <t>196; 195; 193; 192; 191</t>
+  </si>
+  <si>
+    <t>alt1.aspmx.l.google.com; alt3.aspmx.l.google.com; alt2.aspmx.l.google.com; aspmx.l.google.com; alt4.aspmx.l.google.com</t>
+  </si>
+  <si>
+    <t>108.177.97.26; 173.194.200.27; 209.85.146.27; 64.233.162.26; 74.125.28.27</t>
   </si>
   <si>
     <t>gmail.com</t>
   </si>
   <si>
-    <t>10; 5; 40; 30; 20</t>
-  </si>
-  <si>
-    <t>2031; 2031; 2031; 2031; 2031</t>
-  </si>
-  <si>
-    <t>alt1.gmail-smtp-in.l.google.com; gmail-smtp-in.l.google.com; alt4.gmail-smtp-in.l.google.com; alt3.gmail-smtp-in.l.google.com; alt2.gmail-smtp-in.l.google.com</t>
-  </si>
-  <si>
-    <t>108.177.14.26; 108.177.97.26; 173.194.70.27; 209.85.234.26; 2404:6800:4008:c00::1a; 2607:f8b0:4001:c17::1a; 2607:f8b0:4003:c0f::1b; 2607:f8b0:400e:c04::1a; 2a00:1450:4010:c05::1a; 74.125.28.27</t>
+    <t>5; 20; 30; 40; 10</t>
+  </si>
+  <si>
+    <t>3359; 3357; 3356; 3355; 3353</t>
+  </si>
+  <si>
+    <t>gmail-smtp-in.l.google.com; alt2.gmail-smtp-in.l.google.com; alt3.gmail-smtp-in.l.google.com; alt4.gmail-smtp-in.l.google.com; alt1.gmail-smtp-in.l.google.com</t>
+  </si>
+  <si>
+    <t>108.177.97.27; 173.194.200.27; 173.194.73.27; 209.85.146.26; 209.85.146.27; 74.125.28.26</t>
   </si>
   <si>
     <t>microsoft.com</t>
   </si>
   <si>
-    <t>2210</t>
+    <t>2555</t>
   </si>
   <si>
     <t>microsoft-com.mail.protection.outlook.com</t>
@@ -116,40 +122,46 @@
     <t/>
   </si>
   <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>v=DMARC1; p=reject; rua=mailto:mailauth-reports@google.com</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>v=DMARC1; p=none; sp=quarantine; rua=mailto:mailauth-reports@google.com</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>v=DMARC1; p=reject; pct=100; rua=mailto:d@rua.agari.com; ruf=mailto:d@ruf.agari.com; fo=1</t>
+  </si>
+  <si>
+    <t>SPF</t>
+  </si>
+  <si>
+    <t>v=spf1 a mx ip4:77.55.95.155 ip4:37.59.176.138 ip4:37.59.176.137 include:spf.protection.outlook.com -all</t>
+  </si>
+  <si>
+    <t>v=spf1 include:spf.protection.outlook.com -all</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
-    <t>v=DMARC1; p=reject; rua=mailto:mailauth-reports@google.com</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>v=DMARC1; p=none; sp=quarantine; rua=mailto:mailauth-reports@google.com</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>v=DMARC1; p=reject; pct=100; rua=mailto:d@rua.agari.com; ruf=mailto:d@ruf.agari.com; fo=1</t>
-  </si>
-  <si>
-    <t>SPF</t>
-  </si>
-  <si>
-    <t>v=spf1 a mx ip4:77.55.95.155 ip4:37.59.176.138 ip4:37.59.176.137 include:spf.protection.outlook.com -all</t>
-  </si>
-  <si>
-    <t>v=spf1 include:spf.protection.outlook.com -all</t>
-  </si>
-  <si>
     <t>v=spf1 include:_spf.google.com ~all</t>
   </si>
   <si>
-    <t>260</t>
+    <t>68</t>
   </si>
   <si>
     <t>v=spf1 redirect=_spf.google.com</t>
+  </si>
+  <si>
+    <t>2443</t>
   </si>
   <si>
     <t>v=spf1 include:_spf-a.microsoft.com include:_spf-b.microsoft.com include:_spf-c.microsoft.com include:_spf-ssg-a.microsoft.com include:spf-a.hotmail.com include:_spf1-meo.microsoft.com -all</t>
@@ -223,7 +235,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -233,10 +245,10 @@
   <cols>
     <col min="1" max="1" width="14.1171236038208" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.609310150146484" customWidth="1"/>
-    <col min="4" max="4" width="27.545879364013672" customWidth="1"/>
-    <col min="5" max="5" width="140.83705139160156" customWidth="1"/>
-    <col min="6" max="6" width="178.54005432128906" customWidth="1"/>
+    <col min="3" max="3" width="16.6093101501465" customWidth="1"/>
+    <col min="4" max="4" width="27.5458793640137" customWidth="1"/>
+    <col min="5" max="5" width="140.837051391602" customWidth="1"/>
+    <col min="6" max="6" width="82.1724319458008" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -290,58 +302,58 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0">
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
@@ -350,13 +362,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -365,7 +377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -375,8 +387,8 @@
   <cols>
     <col min="1" max="1" width="14.1171236038208" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="84.94187927246094" customWidth="1"/>
+    <col min="3" max="3" width="11.3988389968872" customWidth="1"/>
+    <col min="4" max="4" width="84.9418792724609" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -384,83 +396,83 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="0">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="0">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="0">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -469,7 +481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -479,8 +491,8 @@
   <cols>
     <col min="1" max="1" width="14.1171236038208" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="171.57809448242188" customWidth="1"/>
+    <col min="3" max="3" width="11.3988389968872" customWidth="1"/>
+    <col min="4" max="4" width="171.578094482422" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -488,83 +500,83 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="0">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="0">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="0">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -583,8 +595,8 @@
   <cols>
     <col min="1" max="1" width="14.1171236038208" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.800901412963867" customWidth="1"/>
-    <col min="4" max="4" width="281.1044006347656" customWidth="1"/>
+    <col min="3" max="3" width="22.8009014129639" customWidth="1"/>
+    <col min="4" max="4" width="281.104400634766" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -595,10 +607,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -609,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -623,52 +635,52 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Output/MailSystemSummary.xlsx
+++ b/Examples/Output/MailSystemSummary.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="MX Records" sheetId="45" r:id="rId46"/>
-    <sheet name="DMARC Records" sheetId="46" r:id="rId47"/>
-    <sheet name="SPF Records" sheetId="47" r:id="rId48"/>
-    <sheet name="DKIM Records" sheetId="48" r:id="rId49"/>
+    <sheet name="MX Records" sheetId="57" r:id="rId58"/>
+    <sheet name="DMARC Records" sheetId="58" r:id="rId59"/>
+    <sheet name="SPF Records" sheetId="59" r:id="rId60"/>
+    <sheet name="DKIM Records" sheetId="60" r:id="rId61"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MX Records'!$A$1:$F$6</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -47,126 +47,120 @@
     <t>10</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>evotec-pl.mail.protection.outlook.com</t>
+  </si>
+  <si>
+    <t>104.47.8.36; 104.47.9.36</t>
+  </si>
+  <si>
+    <t>evotec.xyz</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>evotec-xyz.mail.protection.outlook.com</t>
+  </si>
+  <si>
+    <t>microsoft.com</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>microsoft-com.mail.protection.outlook.com</t>
+  </si>
+  <si>
+    <t>104.47.53.36</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
+  </si>
+  <si>
+    <t>30; 40; 5; 20; 10</t>
+  </si>
+  <si>
+    <t>3574; 3572; 3570; 3568; 3567</t>
+  </si>
+  <si>
+    <t>alt3.gmail-smtp-in.l.google.com; alt4.gmail-smtp-in.l.google.com; gmail-smtp-in.l.google.com; alt2.gmail-smtp-in.l.google.com; alt1.gmail-smtp-in.l.google.com</t>
+  </si>
+  <si>
+    <t>108.177.112.26; 108.177.112.27; 108.177.14.26; 108.177.14.27; 108.177.97.27; 173.194.223.26; 173.194.223.27; 64.233.161.26; 64.233.162.26; 74.125.28.27</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>20; 50; 40; 30; 10</t>
+  </si>
+  <si>
+    <t>296; 295; 293; 291; 290</t>
+  </si>
+  <si>
+    <t>alt1.aspmx.l.google.com; alt4.aspmx.l.google.com; alt3.aspmx.l.google.com; alt2.aspmx.l.google.com; aspmx.l.google.com</t>
+  </si>
+  <si>
+    <t>108.177.112.26; 108.177.112.27; 108.177.97.27; 173.194.221.27; 173.194.223.26; 173.194.223.27; 64.233.163.27; 64.233.165.26; 74.125.28.26; 74.125.28.27</t>
+  </si>
+  <si>
+    <t>DMARC</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
-    <t>evotec-pl.mail.protection.outlook.com</t>
-  </si>
-  <si>
-    <t>104.47.10.36; 104.47.8.36</t>
-  </si>
-  <si>
-    <t>evotec.xyz</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>evotec-xyz.mail.protection.outlook.com</t>
-  </si>
-  <si>
-    <t>104.47.8.36; 104.47.9.36</t>
-  </si>
-  <si>
-    <t>google.com</t>
-  </si>
-  <si>
-    <t>20; 40; 30; 10; 50</t>
-  </si>
-  <si>
-    <t>196; 195; 193; 192; 191</t>
-  </si>
-  <si>
-    <t>alt1.aspmx.l.google.com; alt3.aspmx.l.google.com; alt2.aspmx.l.google.com; aspmx.l.google.com; alt4.aspmx.l.google.com</t>
-  </si>
-  <si>
-    <t>108.177.97.26; 173.194.200.27; 209.85.146.27; 64.233.162.26; 74.125.28.27</t>
-  </si>
-  <si>
-    <t>gmail.com</t>
-  </si>
-  <si>
-    <t>5; 20; 30; 40; 10</t>
-  </si>
-  <si>
-    <t>3359; 3357; 3356; 3355; 3353</t>
-  </si>
-  <si>
-    <t>gmail-smtp-in.l.google.com; alt2.gmail-smtp-in.l.google.com; alt3.gmail-smtp-in.l.google.com; alt4.gmail-smtp-in.l.google.com; alt1.gmail-smtp-in.l.google.com</t>
-  </si>
-  <si>
-    <t>108.177.97.27; 173.194.200.27; 173.194.73.27; 209.85.146.26; 209.85.146.27; 74.125.28.26</t>
-  </si>
-  <si>
-    <t>microsoft.com</t>
-  </si>
-  <si>
-    <t>2555</t>
-  </si>
-  <si>
-    <t>microsoft-com.mail.protection.outlook.com</t>
-  </si>
-  <si>
-    <t>104.47.53.36</t>
-  </si>
-  <si>
-    <t>DMARC</t>
-  </si>
-  <si>
     <t>v=DMARC1;p=none;rua=mailto:dmarc_agg@vali.email;sp=none;aspf=s;</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>3599</t>
+  </si>
+  <si>
+    <t>v=DMARC1; p=reject; pct=100; rua=mailto:d@rua.agari.com; ruf=mailto:d@ruf.agari.com; fo=1</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>v=DMARC1; p=none; sp=quarantine; rua=mailto:mailauth-reports@google.com</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>v=DMARC1; p=reject; rua=mailto:mailauth-reports@google.com</t>
+  </si>
+  <si>
+    <t>SPF</t>
+  </si>
+  <si>
+    <t>v=spf1 a mx ip4:77.55.95.155 ip4:37.59.176.138 ip4:37.59.176.137 include:spf.protection.outlook.com -all</t>
+  </si>
+  <si>
+    <t>v=spf1 include:spf.protection.outlook.com -all</t>
+  </si>
+  <si>
     <t>299</t>
   </si>
   <si>
-    <t>v=DMARC1; p=reject; rua=mailto:mailauth-reports@google.com</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>v=DMARC1; p=none; sp=quarantine; rua=mailto:mailauth-reports@google.com</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>v=DMARC1; p=reject; pct=100; rua=mailto:d@rua.agari.com; ruf=mailto:d@ruf.agari.com; fo=1</t>
-  </si>
-  <si>
-    <t>SPF</t>
-  </si>
-  <si>
-    <t>v=spf1 a mx ip4:77.55.95.155 ip4:37.59.176.138 ip4:37.59.176.137 include:spf.protection.outlook.com -all</t>
-  </si>
-  <si>
-    <t>v=spf1 include:spf.protection.outlook.com -all</t>
-  </si>
-  <si>
-    <t>300</t>
+    <t>v=spf1 include:_spf-a.microsoft.com include:_spf-b.microsoft.com include:_spf-c.microsoft.com include:_spf-ssg-a.microsoft.com include:spf-a.hotmail.com include:_spf1-meo.microsoft.com -all</t>
+  </si>
+  <si>
+    <t>v=spf1 redirect=_spf.google.com</t>
+  </si>
+  <si>
+    <t>3448</t>
   </si>
   <si>
     <t>v=spf1 include:_spf.google.com ~all</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>v=spf1 redirect=_spf.google.com</t>
-  </si>
-  <si>
-    <t>2443</t>
-  </si>
-  <si>
-    <t>v=spf1 include:_spf-a.microsoft.com include:_spf-b.microsoft.com include:_spf-c.microsoft.com include:_spf-ssg-a.microsoft.com include:spf-a.hotmail.com include:_spf1-meo.microsoft.com -all</t>
-  </si>
-  <si>
     <t>Selector</t>
   </si>
   <si>
@@ -185,13 +179,16 @@
     <t>v=DKIM1; k=rsa; p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDhI50wSneU7XBAY5e/L0EYs7DtoEN2MV4S9nZt9LpSIliNvlOXM2hJ9N4ks1dga5HwnfLH8LCudOQD/m+Me8S8V+xQXEAd6uHFOKiZiup8VLor07eBs5A6OqmQ4hnJ0ioo54KHfhqRAHnC5e/oo26wuntHAzQsaTuQEIRPY8v1aQIDAQAB; n=1024,1449053169,1</t>
   </si>
   <si>
-    <t>google.com:selector1</t>
-  </si>
-  <si>
-    <t>gmail.com:selector1</t>
-  </si>
-  <si>
-    <t>microsoft.com:selector1</t>
+    <t>microsoft.com:selector2</t>
+  </si>
+  <si>
+    <t>v=DKIM1; k=rsa; p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQCPkb8bu8RGWeJGk3hJrouZXIdZ+HTp/azRp8IUOHp5wKvPUAi/54PwuLscUjRk4Rh3hjIkMpKRfJJXPxWbrT7eMLric7f/S0h+qF4aqIiQqHFCDAYfMnN6V3Wbke2U5EGm0H/cAUYkaf2AtuHJ/rdY/EXaldAm00PgT9QQMez66QIDAQAB;</t>
+  </si>
+  <si>
+    <t>gmail.com:selector2</t>
+  </si>
+  <si>
+    <t>google.com:selector2</t>
   </si>
 </sst>
 </file>
@@ -235,7 +232,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -248,7 +245,7 @@
     <col min="3" max="3" width="16.6093101501465" customWidth="1"/>
     <col min="4" max="4" width="27.5458793640137" customWidth="1"/>
     <col min="5" max="5" width="140.837051391602" customWidth="1"/>
-    <col min="6" max="6" width="82.1724319458008" customWidth="1"/>
+    <col min="6" max="6" width="140.00325012207" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -302,73 +299,73 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="0">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -377,7 +374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -402,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -413,10 +410,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -427,52 +424,52 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -481,7 +478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -506,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -517,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -531,52 +528,52 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -607,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -621,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -635,52 +632,52 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
